--- a/src/app/test.xlsx
+++ b/src/app/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAK\PycharmProjects\ExcelBadgeCreator\src\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -39,67 +39,40 @@
     <t>TEACHER</t>
   </si>
   <si>
-    <t>Georgios</t>
-  </si>
-  <si>
-    <t>Konstantopoulos</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Graikos</t>
-  </si>
-  <si>
-    <t>Theodore</t>
-  </si>
-  <si>
-    <t>Sidiropoulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giannis </t>
-  </si>
-  <si>
-    <t>Oikonomidis</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Kyriakou</t>
-  </si>
-  <si>
-    <t>Kostas</t>
-  </si>
-  <si>
-    <t>Avramis</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Tsiakiri</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Kogias</t>
-  </si>
-  <si>
-    <t>Savvas</t>
-  </si>
-  <si>
-    <t>Malakas</t>
-  </si>
-  <si>
-    <t>Paparas</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Tsoulias</t>
+    <t>Foo</t>
+  </si>
+  <si>
+    <t>Bar1</t>
+  </si>
+  <si>
+    <t>Bar2</t>
+  </si>
+  <si>
+    <t>Bar3</t>
+  </si>
+  <si>
+    <t>Bar4</t>
+  </si>
+  <si>
+    <t>Bar5</t>
+  </si>
+  <si>
+    <t>Bar0</t>
+  </si>
+  <si>
+    <t>Bar6</t>
+  </si>
+  <si>
+    <t>Bar7</t>
+  </si>
+  <si>
+    <t>Bar8</t>
+  </si>
+  <si>
+    <t>Bar9</t>
+  </si>
+  <si>
+    <t>Bar10</t>
   </si>
 </sst>
 </file>
@@ -442,7 +415,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +440,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -475,10 +448,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -486,10 +459,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -497,10 +470,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -508,10 +481,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -519,10 +492,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -530,10 +503,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -541,10 +514,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -552,10 +525,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -563,10 +536,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -574,10 +547,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
